--- a/input/NetworkFlowProblem-Data.xlsx
+++ b/input/NetworkFlowProblem-Data.xlsx
@@ -5,28 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahryarmonghasemi/Dropbox/Interview Problem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahryarmonghasemi/Dropbox/Interview Problem/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CE2C75-D421-4347-98D6-5475E5351FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0018E1E-4E66-E94F-AEB6-2E47A742D980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="8" xr2:uid="{E3F19191-E47E-4C86-B9D1-D2E4449E062A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37440" windowHeight="21100" activeTab="1" xr2:uid="{E3F19191-E47E-4C86-B9D1-D2E4449E062A}"/>
   </bookViews>
   <sheets>
     <sheet name="Input1" sheetId="1" r:id="rId1"/>
     <sheet name="Output1" sheetId="2" r:id="rId2"/>
     <sheet name="Input2" sheetId="3" r:id="rId3"/>
     <sheet name="Output2" sheetId="4" r:id="rId4"/>
-    <sheet name="Input6" sheetId="9" r:id="rId5"/>
-    <sheet name="Output6" sheetId="10" r:id="rId6"/>
-    <sheet name="Input3" sheetId="5" r:id="rId7"/>
-    <sheet name="Input4" sheetId="6" r:id="rId8"/>
-    <sheet name="Input5" sheetId="8" r:id="rId9"/>
+    <sheet name="Input3" sheetId="5" r:id="rId5"/>
+    <sheet name="Input4" sheetId="6" r:id="rId6"/>
+    <sheet name="Input5" sheetId="8" r:id="rId7"/>
+    <sheet name="Input6" sheetId="9" r:id="rId8"/>
+    <sheet name="Output6" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input1!$A$1:$G$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Input3!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Input6!$A$1:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Input3!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Input6!$A$1:$G$57</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -475,9 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -487,39 +485,28 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -539,15 +526,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1998,10 +1983,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G52" s="35"/>
+      <c r="G52" s="32"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G53" s="36"/>
+      <c r="G53" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G49" xr:uid="{6EA089E0-D283-4783-9B52-67650476778B}"/>
@@ -2017,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C61485-64A7-4B7F-B8D3-D34E95743FBD}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
@@ -2101,61 +2086,61 @@
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22">
         <v>6859.19</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="23">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22">
         <v>6859.19</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="23">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="22">
         <v>6859.19</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="23">
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2">
         <v>8</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="22">
         <v>6859.19</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="38">
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1">
         <v>8</v>
       </c>
-      <c r="T2" s="39">
+      <c r="T2" s="35">
         <v>6859.19</v>
       </c>
       <c r="U2" s="1">
@@ -2166,61 +2151,61 @@
       <c r="A3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
         <v>300</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="23">
-        <v>1</v>
-      </c>
-      <c r="H3" s="24">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22">
         <v>300</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="23">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="22">
         <v>300</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="23">
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="22">
         <v>300</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="41">
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="2">
         <v>8</v>
       </c>
-      <c r="T3" s="42">
+      <c r="T3" s="37">
         <v>300</v>
       </c>
       <c r="U3" s="2">
@@ -2231,61 +2216,61 @@
       <c r="A4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="24">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22">
         <v>5000</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <v>5000</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="23">
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="22">
         <v>5000</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="23">
-        <v>9</v>
-      </c>
-      <c r="P4" s="24">
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4" s="22">
         <v>5000</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="44">
+      <c r="S4" s="4">
         <v>18</v>
       </c>
-      <c r="T4" s="45">
+      <c r="T4" s="39">
         <v>5000</v>
       </c>
       <c r="U4" s="4">
@@ -2296,61 +2281,61 @@
       <c r="A5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
         <v>1000</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="23">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
         <v>1000</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="23">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="22">
         <v>1000</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="23">
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5">
         <v>8</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="22">
         <v>1000</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="3">
         <v>13</v>
       </c>
-      <c r="T5" s="48">
+      <c r="T5" s="41">
         <v>1000</v>
       </c>
       <c r="U5" s="3">
@@ -2361,61 +2346,61 @@
       <c r="A6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
         <v>6348</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="22">
         <v>6348</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="23">
-        <v>17</v>
-      </c>
-      <c r="L6" s="24">
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6" s="22">
         <v>6348</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="23">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6">
         <v>23</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="22">
         <v>6348</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="5">
         <v>23</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="43">
         <v>6348</v>
       </c>
       <c r="U6" s="5">
@@ -2426,61 +2411,61 @@
       <c r="A7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
         <v>17000</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <v>17000</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="23">
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="22">
         <v>17000</v>
       </c>
       <c r="M7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="23">
-        <v>9</v>
-      </c>
-      <c r="P7" s="24">
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22">
         <v>17000</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="53">
+      <c r="R7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="6">
         <v>23</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="45">
         <v>17000</v>
       </c>
       <c r="U7" s="6">
@@ -2491,61 +2476,61 @@
       <c r="A8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
         <v>10138.809999999899</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="22">
         <v>10138.809999999899</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="23">
-        <v>14</v>
-      </c>
-      <c r="L8" s="24">
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8" s="22">
         <v>10138.809999999899</v>
       </c>
       <c r="M8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="23">
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8">
         <v>24</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="22">
         <v>10138.809999999899</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="Q8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="56">
+      <c r="R8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="7">
         <v>24</v>
       </c>
-      <c r="T8" s="57">
+      <c r="T8" s="47">
         <v>10138.809999999899</v>
       </c>
       <c r="U8" s="7">
@@ -2556,61 +2541,61 @@
       <c r="A9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22">
         <v>1900.99999999998</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="22">
         <v>1900.99999999998</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="23">
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
         <v>20</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="22">
         <v>1900.99999999998</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="23">
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9">
         <v>25</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
         <v>1900.99999999998</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="59">
+      <c r="R9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="8">
         <v>27</v>
       </c>
-      <c r="T9" s="60">
+      <c r="T9" s="49">
         <v>1900.99999999998</v>
       </c>
       <c r="U9" s="8">
@@ -2666,68 +2651,68 @@
       <c r="P10" s="19">
         <v>4499.00000000001</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="71">
+      <c r="R10" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="58">
         <v>28</v>
       </c>
-      <c r="T10" s="72">
+      <c r="T10" s="59">
         <v>4499.00000000001</v>
       </c>
-      <c r="U10" s="73" t="s">
+      <c r="U10" s="60" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="27">
-        <v>1</v>
-      </c>
-      <c r="D11" s="28">
+      <c r="B11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26">
         <v>3022.0999999999699</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="27">
+      <c r="F11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="25">
         <v>10</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="26">
         <v>3022.0999999999699</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="27">
+      <c r="I11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="25">
         <v>24</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="26">
         <v>3022.0999999999699</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="77" t="s">
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="64" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2735,61 +2720,61 @@
       <c r="A12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="23">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22">
         <v>2500</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>2500</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="23">
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
         <v>20</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="22">
         <v>2500</v>
       </c>
       <c r="M12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="23">
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12">
         <v>28</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="22">
         <v>2500</v>
       </c>
-      <c r="Q12" s="61" t="s">
+      <c r="Q12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="62">
+      <c r="R12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="10">
         <v>28</v>
       </c>
-      <c r="T12" s="63">
+      <c r="T12" s="51">
         <v>2500</v>
       </c>
       <c r="U12" s="10">
@@ -2800,61 +2785,61 @@
       <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="23">
-        <v>1</v>
-      </c>
-      <c r="D13" s="24">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22">
         <v>2074.5299999999902</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="22">
         <v>2074.5299999999902</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="23">
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
         <v>23</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <v>2074.5299999999902</v>
       </c>
       <c r="M13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="23">
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13">
         <v>28</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="22">
         <v>2074.5299999999902</v>
       </c>
-      <c r="Q13" s="64" t="s">
+      <c r="Q13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" s="65">
+      <c r="R13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="11">
         <v>28</v>
       </c>
-      <c r="T13" s="66">
+      <c r="T13" s="53">
         <v>2074.5299999999902</v>
       </c>
       <c r="U13" s="11">
@@ -2865,61 +2850,61 @@
       <c r="A14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22">
         <v>312.47000000000003</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>312.47000000000003</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14">
         <v>24</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>312.47000000000003</v>
       </c>
       <c r="M14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14">
         <v>28</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="22">
         <v>312.47000000000003</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="S14" s="33">
+      <c r="R14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="9">
         <v>28</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="31">
         <v>312.47000000000003</v>
       </c>
       <c r="U14" s="9">
@@ -2927,64 +2912,64 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="28">
+      <c r="B15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26">
         <v>2000</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="F15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="25">
         <v>10</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="26">
         <v>2000</v>
       </c>
-      <c r="I15" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="27">
+      <c r="I15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="25">
         <v>23</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="26">
         <v>2000</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="27">
+      <c r="N15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="25">
         <v>28</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="26">
         <v>2000</v>
       </c>
-      <c r="Q15" s="67" t="s">
+      <c r="Q15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="68" t="s">
+      <c r="R15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="68">
+      <c r="S15" s="55">
         <v>28</v>
       </c>
-      <c r="T15" s="69">
+      <c r="T15" s="56">
         <v>2000</v>
       </c>
       <c r="U15" s="12">
@@ -3415,6 +3400,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31E6CE7-DC96-4823-A695-12E363B62A0D}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="69">
+        <v>6</v>
+      </c>
+      <c r="G7" s="69">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="68">
+        <v>15</v>
+      </c>
+      <c r="G10" s="68">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="77">
+        <v>23</v>
+      </c>
+      <c r="G12" s="77">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{C31E6CE7-DC96-4823-A695-12E363B62A0D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A507C83D-BBA9-4AA1-B3A1-C6D3562F56BC}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B29D59-2288-4D87-BA2B-9AC3D0CFF30D}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1064.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1462.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6675.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>47.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1064.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1462.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6675.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>47.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>911.480000000019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>231.049999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>712.00000000000603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>320.28999999998899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>352.80999999999301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>6723.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>1623.48000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>231.049999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>673.09999999998195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>6723.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>6723.07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>1854.53000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>673.09999999998195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17BF9EA-D854-4FDD-8BD9-29EE0D792D01}">
   <dimension ref="A1:G57"/>
   <sheetViews>
@@ -3908,462 +5033,462 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="81" t="s">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="81" t="s">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23">
         <v>10</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23">
         <v>9219.70999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="81" t="s">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="81" t="s">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24">
         <v>10</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24">
         <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="81" t="s">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="81" t="s">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25">
         <v>10</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25">
         <v>10860</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="81" t="s">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="81">
-        <v>11</v>
-      </c>
-      <c r="G26" s="81">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
         <v>1500</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="81" t="s">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="81" t="s">
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27">
         <v>15</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27">
         <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="81" t="s">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="81" t="s">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="81">
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
         <v>15</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28">
         <v>3104.1800000000098</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="81" t="s">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="81" t="s">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29">
         <v>15</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29">
         <v>745</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="82">
-        <v>16</v>
-      </c>
-      <c r="G30" s="82">
+      <c r="D30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="14">
+        <v>16</v>
+      </c>
+      <c r="G30" s="14">
         <v>4706.1000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="81" t="s">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="81" t="s">
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="81">
-        <v>16</v>
-      </c>
-      <c r="G31" s="81">
+      <c r="F31">
+        <v>16</v>
+      </c>
+      <c r="G31">
         <v>6161.9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="81" t="s">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="81" t="s">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="81">
-        <v>16</v>
-      </c>
-      <c r="G32" s="81">
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="G32">
         <v>6161.9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="82">
-        <v>17</v>
-      </c>
-      <c r="G33" s="82">
+      <c r="D33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="14">
+        <v>17</v>
+      </c>
+      <c r="G33" s="14">
         <v>895.50000000000102</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="81" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="81" t="s">
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="81">
-        <v>17</v>
-      </c>
-      <c r="G34" s="81">
+      <c r="F34">
+        <v>17</v>
+      </c>
+      <c r="G34">
         <v>1500</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="81" t="s">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="81" t="s">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="81">
-        <v>17</v>
-      </c>
-      <c r="G35" s="81">
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>17</v>
+      </c>
+      <c r="G35">
         <v>1115.52999999998</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="81" t="s">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="81">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36">
         <v>18</v>
       </c>
-      <c r="G36" s="81">
+      <c r="G36">
         <v>12076.75</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="81" t="s">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="81" t="s">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37">
         <v>18</v>
       </c>
-      <c r="G37" s="81">
+      <c r="G37">
         <v>1500</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="84">
+      <c r="C38" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="69">
         <v>19</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="69">
         <v>10860</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="81" t="s">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="81">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39">
         <v>19</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39">
         <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="81" t="s">
+      <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="81" t="s">
+      <c r="D40" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="81" t="s">
+      <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40">
         <v>22</v>
       </c>
-      <c r="G40" s="81">
+      <c r="G40">
         <v>3488.2399999999898</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="81" t="s">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="81" t="s">
+      <c r="C41" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="81" t="s">
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="81">
+      <c r="F41">
         <v>22</v>
       </c>
-      <c r="G41" s="81">
+      <c r="G41">
         <v>3488.2399999999898</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="81" t="s">
+      <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="81" t="s">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="81">
+      <c r="F42">
         <v>22</v>
       </c>
-      <c r="G42" s="81">
+      <c r="G42">
         <v>1737.04</v>
       </c>
     </row>
@@ -4391,117 +5516,117 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="81" t="s">
+      <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="81" t="s">
+      <c r="B44" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="81" t="s">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="81">
+      <c r="F44">
         <v>23</v>
       </c>
-      <c r="G44" s="81">
+      <c r="G44">
         <v>731.47000000000105</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="81" t="s">
+      <c r="A45" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="81" t="s">
+      <c r="B45" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="81">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45">
         <v>23</v>
       </c>
-      <c r="G45" s="81">
+      <c r="G45">
         <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="81" t="s">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="81">
+      <c r="F46">
         <v>23</v>
       </c>
-      <c r="G46" s="81">
+      <c r="G46">
         <v>12972.25</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="81" t="s">
+      <c r="A47" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="81" t="s">
+      <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="81" t="s">
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="81">
+      <c r="F47">
         <v>23</v>
       </c>
-      <c r="G47" s="81">
+      <c r="G47">
         <v>12972.25</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="81" t="s">
+      <c r="A48" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="81" t="s">
+      <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="81" t="s">
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="81">
+      <c r="F48">
         <v>23</v>
       </c>
-      <c r="G48" s="81">
+      <c r="G48">
         <v>1737.04</v>
       </c>
     </row>
@@ -4529,25 +5654,25 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="83" t="s">
+      <c r="C50" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="83" t="s">
+      <c r="E50" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="83">
+      <c r="F50" s="68">
         <v>23</v>
       </c>
-      <c r="G50" s="83">
+      <c r="G50" s="68">
         <v>10860</v>
       </c>
     </row>
@@ -4718,7 +5843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F516BC84-B0C8-47EE-91A8-6C1A9487DB77}">
   <dimension ref="A1:U15"/>
   <sheetViews>
@@ -4797,61 +5922,61 @@
       <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22">
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
         <v>4706.1000000000004</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="14">
         <v>10</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>4706.1000000000004</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="21">
-        <v>16</v>
-      </c>
-      <c r="L2" s="22">
+      <c r="J2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="14">
+        <v>16</v>
+      </c>
+      <c r="L2" s="21">
         <v>4706.1000000000004</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="23">
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2">
         <v>24</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="22">
         <v>4706.1000000000004</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="33">
+      <c r="R2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="9">
         <v>24</v>
       </c>
-      <c r="T2" s="34">
+      <c r="T2" s="31">
         <v>4706.1000000000004</v>
       </c>
       <c r="U2" s="15">
@@ -4862,61 +5987,61 @@
       <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
         <v>500</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="22">
         <v>500</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="23">
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
         <v>23</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="22">
         <v>500</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="23">
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3">
         <v>28</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="22">
         <v>500</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="9">
         <v>28</v>
       </c>
-      <c r="T3" s="34">
+      <c r="T3" s="31">
         <v>500</v>
       </c>
       <c r="U3" s="15">
@@ -4924,67 +6049,67 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="86">
-        <v>1</v>
-      </c>
-      <c r="D4" s="87">
+      <c r="B4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="71">
+        <v>1</v>
+      </c>
+      <c r="D4" s="72">
         <v>5000</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="86">
+      <c r="F4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="71">
         <v>10</v>
       </c>
-      <c r="H4" s="87">
+      <c r="H4" s="72">
         <v>5000</v>
       </c>
-      <c r="I4" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="86">
+      <c r="I4" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="71">
         <v>19</v>
       </c>
-      <c r="L4" s="87">
+      <c r="L4" s="72">
         <v>5000</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="86">
+      <c r="N4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="71">
         <v>28</v>
       </c>
-      <c r="P4" s="87">
+      <c r="P4" s="72">
         <v>5000</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="89">
+      <c r="R4" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="74">
         <v>28</v>
       </c>
-      <c r="T4" s="90">
+      <c r="T4" s="75">
         <v>5000</v>
       </c>
-      <c r="U4" s="91">
+      <c r="U4" s="76">
         <v>9</v>
       </c>
     </row>
@@ -4992,61 +6117,61 @@
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
         <v>10860</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <v>10860</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="23">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
         <v>19</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="22">
         <v>10860</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="23">
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5">
         <v>23</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="22">
         <v>10860</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="9">
         <v>23</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5" s="31">
         <v>10860</v>
       </c>
       <c r="U5" s="15">
@@ -5057,61 +6182,61 @@
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
         <v>1737.04</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="22">
         <v>1737.04</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="23">
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
         <v>8</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="22">
         <v>1737.04</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="23">
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6">
         <v>22</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="22">
         <v>1737.04</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="33">
+      <c r="R6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="9">
         <v>23</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="31">
         <v>1737.04</v>
       </c>
       <c r="U6" s="15">
@@ -5167,68 +6292,68 @@
       <c r="P7" s="19">
         <v>12972.25</v>
       </c>
-      <c r="Q7" s="70" t="s">
+      <c r="Q7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="71">
+      <c r="R7" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="58">
         <v>23</v>
       </c>
-      <c r="T7" s="72">
+      <c r="T7" s="59">
         <v>12972.25</v>
       </c>
-      <c r="U7" s="78" t="s">
+      <c r="U7" s="65" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="26">
-        <v>1</v>
-      </c>
-      <c r="D8" s="80">
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="67">
         <v>895.50000000000102</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>10</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="67">
         <v>895.50000000000102</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="26">
-        <v>17</v>
-      </c>
-      <c r="L8" s="80">
+      <c r="I8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="24">
+        <v>17</v>
+      </c>
+      <c r="L8" s="67">
         <v>895.50000000000102</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="79" t="s">
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="66" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5236,61 +6361,61 @@
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22">
         <v>731.47000000000105</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="22">
         <v>731.47000000000105</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9">
         <v>15</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="22">
         <v>731.47000000000105</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9">
         <v>15</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
         <v>731.47000000000105</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="33">
+      <c r="R9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="9">
         <v>23</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="31">
         <v>731.47000000000105</v>
       </c>
       <c r="U9" s="16">
@@ -5346,55 +6471,55 @@
       <c r="P10" s="19">
         <v>3488.2399999999898</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" s="71">
+      <c r="R10" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="58">
         <v>22</v>
       </c>
-      <c r="T10" s="72">
+      <c r="T10" s="59">
         <v>3488.2399999999898</v>
       </c>
-      <c r="U10" s="78" t="s">
+      <c r="U10" s="65" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="27" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="25">
         <v>15</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="26">
         <f>P10-L10</f>
         <v>2372.71000000001</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="79" t="s">
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="66" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5402,61 +6527,61 @@
       <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="23">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22">
         <v>1500</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>1500</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="23">
-        <v>11</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="22">
         <v>1500</v>
       </c>
       <c r="M12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="23">
-        <v>17</v>
-      </c>
-      <c r="P12" s="24">
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>17</v>
+      </c>
+      <c r="P12" s="22">
         <v>1500</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="9">
         <v>18</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="31">
         <v>1500</v>
       </c>
       <c r="U12" s="16">
@@ -5467,61 +6592,61 @@
       <c r="A13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="23">
-        <v>1</v>
-      </c>
-      <c r="D13" s="24">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22">
         <v>6161.9</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="22">
         <v>6161.9</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="23">
-        <v>9</v>
-      </c>
-      <c r="L13" s="24">
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13" s="22">
         <v>6161.9</v>
       </c>
       <c r="M13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="23">
-        <v>9</v>
-      </c>
-      <c r="P13" s="24">
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13" s="22">
         <v>6161.9</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="33">
-        <v>16</v>
-      </c>
-      <c r="T13" s="34">
+      <c r="R13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="9">
+        <v>16</v>
+      </c>
+      <c r="T13" s="31">
         <v>6161.9</v>
       </c>
       <c r="U13" s="16">
@@ -5577,1201 +6702,61 @@
       <c r="P14" s="19">
         <v>745</v>
       </c>
-      <c r="Q14" s="70" t="s">
+      <c r="Q14" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="71">
+      <c r="R14" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="58">
         <v>15</v>
       </c>
-      <c r="T14" s="72">
+      <c r="T14" s="59">
         <v>745</v>
       </c>
-      <c r="U14" s="78" t="s">
+      <c r="U14" s="65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="28">
+      <c r="B15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26">
         <v>522.45000000000005</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="27">
-        <v>1</v>
-      </c>
-      <c r="H15" s="28">
+      <c r="F15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26">
         <v>522.45000000000005</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="79" t="s">
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="66" t="s">
         <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31E6CE7-DC96-4823-A695-12E363B62A0D}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="84">
-        <v>6</v>
-      </c>
-      <c r="G7" s="84">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11">
-        <v>9</v>
-      </c>
-      <c r="G8" s="11">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="83">
-        <v>15</v>
-      </c>
-      <c r="G10" s="83">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="92">
-        <v>23</v>
-      </c>
-      <c r="G12" s="92">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>23</v>
-      </c>
-      <c r="G13">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{C31E6CE7-DC96-4823-A695-12E363B62A0D}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A507C83D-BBA9-4AA1-B3A1-C6D3562F56BC}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>1200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B29D59-2288-4D87-BA2B-9AC3D0CFF30D}">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1064.81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1462.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>124.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6675.88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>47.19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1064.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1462.82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>124.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>6675.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>47.19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>124.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>911.480000000019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>231.049999999991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>712.00000000000603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <v>124.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>320.28999999998899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>352.80999999999301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>6723.07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>1623.48000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>231.049999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22">
-        <v>13</v>
-      </c>
-      <c r="G22">
-        <v>124.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>14</v>
-      </c>
-      <c r="G23">
-        <v>673.09999999998195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <v>6723.07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25">
-        <v>18</v>
-      </c>
-      <c r="G25">
-        <v>6723.07</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <v>23</v>
-      </c>
-      <c r="G26">
-        <v>1854.53000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27">
-        <v>24</v>
-      </c>
-      <c r="G27">
-        <v>673.09999999998195</v>
       </c>
     </row>
   </sheetData>
